--- a/NET1807 - GROUP 4 - REVIEW LIST.xlsx
+++ b/NET1807 - GROUP 4 - REVIEW LIST.xlsx
@@ -8,15 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPT\SWR302-NET1807\SWR302-SU23-GROUP4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB1AA13-D57B-43C2-8226-A561C7A4C7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1A98CE-D419-4F17-B6EA-E1D226458A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment" sheetId="1" r:id="rId1"/>
     <sheet name="Issues" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="11" r:id="rId5"/>
+    <pivotCache cacheId="18" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,14 +36,14 @@
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mg3Txvl24ajXQFWw1Rqypfcpgg60Q=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mg3Txvl24ajXQFWw1Rqypfcpgg60Q=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="44">
   <si>
     <t>UC/Function/Screen</t>
   </si>
@@ -75,30 +81,9 @@
     <t>External</t>
   </si>
   <si>
-    <t>Bổ sung vào tài liệu SRS</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Nguyễn Hữu Tiến Anh</t>
-  </si>
-  <si>
-    <t>UC-01 User detail</t>
-  </si>
-  <si>
-    <t>Normal flow có những bước không có trong danh sách các tính năng ở use case</t>
-  </si>
-  <si>
-    <t>Chỉnh sửa tài liệu SRS</t>
-  </si>
-  <si>
-    <t>Alternative flow cần bổ sung thêm</t>
-  </si>
-  <si>
-    <t>Exception cần ghi rõ ở bước nào trong normal flow</t>
-  </si>
-  <si>
     <t>Lưu Thế Vinh</t>
   </si>
   <si>
@@ -181,6 +166,15 @@
   </si>
   <si>
     <t>Requirements Estimation Tool</t>
+  </si>
+  <si>
+    <t>Count of Lê Đức Lộc</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of Specification In-charge</t>
   </si>
 </sst>
 </file>
@@ -381,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -423,13 +417,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,6 +440,469 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="PinkKyy Nevve" refreshedDate="45483.461543055557" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="17" xr:uid="{A39E5839-B2BE-49C7-899D-6ECDBE368794}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="D3:D20" sheet="Assignment"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="Lê Đức Lộc" numFmtId="0">
+      <sharedItems count="7">
+        <s v="Thái Bình Dương"/>
+        <s v="Nguyễn Tăng Tài Phát"/>
+        <s v="Lưu Thế Vinh"/>
+        <s v="Nguyễn Trung Kiên"/>
+        <s v="Lê Đức Lộc"/>
+        <s v="Nguyễn Như Tài"/>
+        <s v="Trần Anh Toàn"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="PinkKyy Nevve" refreshedDate="45483.463249537039" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="20" xr:uid="{AA977E83-47AC-4272-BC79-C7DAF05AED6B}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G21" sheet="Assignment"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="No" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="20"/>
+    </cacheField>
+    <cacheField name="UC/Function/Screen" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Feature/Workflow" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Specification In-charge" numFmtId="0">
+      <sharedItems count="7">
+        <s v="Lưu Thế Vinh"/>
+        <s v="Lê Đức Lộc"/>
+        <s v="Thái Bình Dương"/>
+        <s v="Nguyễn Tăng Tài Phát"/>
+        <s v="Nguyễn Trung Kiên"/>
+        <s v="Nguyễn Như Tài"/>
+        <s v="Trần Anh Toàn"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Internal Review In-charge" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="External Review In-charge" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Notes" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="17">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="20">
+  <r>
+    <n v="1"/>
+    <m/>
+    <s v="Vision and Scope"/>
+    <x v="0"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="done"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <m/>
+    <s v="Draw Usecase Diagram"/>
+    <x v="1"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="done"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <m/>
+    <s v="Business Rule"/>
+    <x v="2"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="done"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <m/>
+    <s v="Software Requirements Specification - Part 1"/>
+    <x v="2"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="done"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <m/>
+    <s v="Software Requirements Specification - Part 2"/>
+    <x v="3"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="done"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <m/>
+    <s v="Software Requirements Specification - Part 3"/>
+    <x v="0"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="done"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <m/>
+    <s v="Software Requirements Specification - Part 3"/>
+    <x v="4"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="done"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <m/>
+    <s v="Software Requirements Specification - Part 4"/>
+    <x v="1"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="done"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <m/>
+    <s v="Software Requirements Specification - Part 5"/>
+    <x v="2"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="done"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <m/>
+    <s v="Software Requirements Specification - Part 6"/>
+    <x v="5"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="done"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <m/>
+    <s v="Software Requirements Specification - Part 8"/>
+    <x v="5"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="done"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <m/>
+    <s v="All of Use Case "/>
+    <x v="6"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="not done yet"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <m/>
+    <s v="Modeling the Requirements"/>
+    <x v="1"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="not done yet"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <m/>
+    <s v="Data Dictionaries"/>
+    <x v="3"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="done"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <m/>
+    <s v="Requirements Prioritization Spreadsheet"/>
+    <x v="4"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="done"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <m/>
+    <s v="Specifying Report"/>
+    <x v="5"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="done"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <m/>
+    <s v="Action Plan"/>
+    <x v="4"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="not done yet"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <m/>
+    <s v="Risk Management Plan"/>
+    <x v="0"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="not done yet"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <m/>
+    <s v="Requirements Review Checklist"/>
+    <x v="0"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="done"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <m/>
+    <s v="Requirements Estimation Tool"/>
+    <x v="6"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="not done yet"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64E706E5-C55C-43B3-BEC8-01A8380F477E}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A2:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending">
+      <items count="8">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Lê Đức Lộc" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E07524A0-6A28-4E2C-A027-2860FB03B24D}" name="PivotTable2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A2:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending">
+      <items count="8">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Specification In-charge" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -647,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -665,7 +1123,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -692,19 +1150,19 @@
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -713,19 +1171,19 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -734,19 +1192,19 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -755,19 +1213,19 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>37</v>
+        <v>17</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -776,19 +1234,19 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -797,19 +1255,19 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -818,19 +1276,19 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -839,19 +1297,19 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -860,19 +1318,19 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>37</v>
+        <v>17</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -881,19 +1339,19 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -902,19 +1360,19 @@
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="14" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -923,19 +1381,19 @@
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -944,19 +1402,19 @@
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -965,19 +1423,19 @@
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="17" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -986,19 +1444,19 @@
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1007,19 +1465,19 @@
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="18" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1028,19 +1486,19 @@
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="20" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1049,19 +1507,19 @@
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="23" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1069,20 +1527,20 @@
         <v>19</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="25" t="s">
-        <v>46</v>
+      <c r="C20" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1091,13 +1549,19 @@
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
+        <v>40</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="G21" s="24" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2114,8 +2578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2145,56 +2609,32 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -3267,4 +3707,184 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE6D086-F065-43EE-9024-C836753E4ADE}">
+  <dimension ref="A2:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="25">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BCD28E-2E04-426A-B69E-D2AFC8FF8119}">
+  <dimension ref="A2:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="25">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/NET1807 - GROUP 4 - REVIEW LIST.xlsx
+++ b/NET1807 - GROUP 4 - REVIEW LIST.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPT\SWR302-NET1807\SWR302-SU23-GROUP4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1A98CE-D419-4F17-B6EA-E1D226458A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFA7F60-8E74-4808-84A8-BA8932A31A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Assignment" sheetId="1" r:id="rId1"/>
-    <sheet name="Issues" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="8" r:id="rId1"/>
+    <sheet name="Assignment" sheetId="1" r:id="rId2"/>
+    <sheet name="Issues" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId5"/>
-    <pivotCache cacheId="18" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="13" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="50">
   <si>
     <t>UC/Function/Screen</t>
   </si>
@@ -168,13 +168,31 @@
     <t>Requirements Estimation Tool</t>
   </si>
   <si>
-    <t>Count of Lê Đức Lộc</t>
-  </si>
-  <si>
     <t>Grand Total</t>
   </si>
   <si>
     <t>Count of Specification In-charge</t>
+  </si>
+  <si>
+    <t>Change Control Process</t>
+  </si>
+  <si>
+    <t>Change Control Board Charter</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
   </si>
 </sst>
 </file>
@@ -375,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -423,8 +441,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,32 +464,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="PinkKyy Nevve" refreshedDate="45483.461543055557" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="17" xr:uid="{A39E5839-B2BE-49C7-899D-6ECDBE368794}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="D3:D20" sheet="Assignment"/>
-  </cacheSource>
-  <cacheFields count="1">
-    <cacheField name="Lê Đức Lộc" numFmtId="0">
-      <sharedItems count="7">
-        <s v="Thái Bình Dương"/>
-        <s v="Nguyễn Tăng Tài Phát"/>
-        <s v="Lưu Thế Vinh"/>
-        <s v="Nguyễn Trung Kiên"/>
-        <s v="Lê Đức Lộc"/>
-        <s v="Nguyễn Như Tài"/>
-        <s v="Trần Anh Toàn"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="PinkKyy Nevve" refreshedDate="45483.463249537039" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="20" xr:uid="{AA977E83-47AC-4272-BC79-C7DAF05AED6B}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G21" sheet="Assignment"/>
@@ -512,64 +507,237 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="PinkKyy Nevve" refreshedDate="45483.936741666665" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="22" xr:uid="{69A8E3C4-E0F6-468C-919E-822EFD5EA225}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G23" sheet="Assignment"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="No" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="22"/>
+    </cacheField>
+    <cacheField name="UC/Function/Screen" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Feature/Workflow" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Specification In-charge" numFmtId="0">
+      <sharedItems count="7">
+        <s v="Lưu Thế Vinh"/>
+        <s v="Lê Đức Lộc"/>
+        <s v="Thái Bình Dương"/>
+        <s v="Nguyễn Tăng Tài Phát"/>
+        <s v="Nguyễn Trung Kiên"/>
+        <s v="Nguyễn Như Tài"/>
+        <s v="Trần Anh Toàn"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Internal Review In-charge" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="External Review In-charge" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Notes" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="17">
-  <r>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="20">
+  <r>
+    <n v="1"/>
+    <m/>
+    <s v="Vision and Scope"/>
     <x v="0"/>
-  </r>
-  <r>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="done"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <m/>
+    <s v="Draw Usecase Diagram"/>
+    <x v="1"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="done"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <m/>
+    <s v="Business Rule"/>
+    <x v="2"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="done"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <m/>
+    <s v="Software Requirements Specification - Part 1"/>
+    <x v="2"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="done"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <m/>
+    <s v="Software Requirements Specification - Part 2"/>
+    <x v="3"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="done"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <m/>
+    <s v="Software Requirements Specification - Part 3"/>
     <x v="0"/>
-  </r>
-  <r>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="done"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <m/>
+    <s v="Software Requirements Specification - Part 3"/>
+    <x v="4"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="done"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <m/>
+    <s v="Software Requirements Specification - Part 4"/>
     <x v="1"/>
-  </r>
-  <r>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="done"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <m/>
+    <s v="Software Requirements Specification - Part 5"/>
     <x v="2"/>
-  </r>
-  <r>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="done"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <m/>
+    <s v="Software Requirements Specification - Part 6"/>
+    <x v="5"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="done"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <m/>
+    <s v="Software Requirements Specification - Part 8"/>
+    <x v="5"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="done"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <m/>
+    <s v="All of Use Case "/>
+    <x v="6"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="not done yet"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <m/>
+    <s v="Modeling the Requirements"/>
+    <x v="1"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="not done yet"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <m/>
+    <s v="Data Dictionaries"/>
     <x v="3"/>
-  </r>
-  <r>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="done"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <m/>
+    <s v="Requirements Prioritization Spreadsheet"/>
     <x v="4"/>
-  </r>
-  <r>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="done"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <m/>
+    <s v="Specifying Report"/>
+    <x v="5"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="done"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <m/>
+    <s v="Action Plan"/>
+    <x v="4"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="not done yet"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <m/>
+    <s v="Risk Management Plan"/>
     <x v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="not done yet"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <m/>
+    <s v="Requirements Review Checklist"/>
+    <x v="0"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="done"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <m/>
+    <s v="Requirements Estimation Tool"/>
     <x v="6"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="not done yet"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="20">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="22">
   <r>
     <n v="1"/>
     <m/>
@@ -746,6 +914,24 @@
     <m/>
     <s v="Requirements Estimation Tool"/>
     <x v="6"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="not done yet"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <m/>
+    <s v="Change Control Board Charter"/>
+    <x v="6"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="Nguyễn Tăng Tài Phát"/>
+    <s v="not done yet"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <m/>
+    <s v="Change Control Process"/>
+    <x v="3"/>
     <s v="Nguyễn Tăng Tài Phát"/>
     <s v="Nguyễn Tăng Tài Phát"/>
     <s v="not done yet"/>
@@ -754,40 +940,34 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64E706E5-C55C-43B3-BEC8-01A8380F477E}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A2:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FD6376DB-0356-4214-8336-B713D9FCD95A}" name="PivotTable4" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
       <items count="8">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="3"/>
         <item x="4"/>
         <item x="2"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
         <item x="6"/>
         <item t="default"/>
       </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
     </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="0"/>
+    <field x="3"/>
   </rowFields>
   <rowItems count="8">
     <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
+      <x/>
     </i>
     <i>
       <x v="1"/>
@@ -796,10 +976,13 @@
       <x v="2"/>
     </i>
     <i>
-      <x/>
+      <x v="3"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
     </i>
     <i>
       <x v="6"/>
@@ -812,7 +995,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Count of Lê Đức Lộc" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Specification In-charge" fld="3" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -827,7 +1010,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E07524A0-6A28-4E2C-A027-2860FB03B24D}" name="PivotTable2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E07524A0-6A28-4E2C-A027-2860FB03B24D}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A2:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -891,7 +1074,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Count of Specification In-charge" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Specification In-charge" fld="3" subtotal="count" baseField="3" baseItem="1"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -1102,11 +1285,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC92861-AEEE-4A02-96F7-A1A4F30AE96B}">
+  <dimension ref="A3:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="26">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="D2" sqref="D2:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1565,22 +1839,46 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
       <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
       <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
@@ -2574,7 +2872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
@@ -3709,102 +4007,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE6D086-F065-43EE-9024-C836753E4ADE}">
-  <dimension ref="A2:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="25">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BCD28E-2E04-426A-B69E-D2AFC8FF8119}">
   <dimension ref="A2:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3813,18 +4022,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="26">
         <v>4</v>
       </c>
     </row>
@@ -3832,7 +4041,7 @@
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="26">
         <v>3</v>
       </c>
     </row>
@@ -3840,7 +4049,7 @@
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="26">
         <v>3</v>
       </c>
     </row>
@@ -3848,7 +4057,7 @@
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="26">
         <v>3</v>
       </c>
     </row>
@@ -3856,7 +4065,7 @@
       <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="26">
         <v>3</v>
       </c>
     </row>
@@ -3864,7 +4073,7 @@
       <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="26">
         <v>2</v>
       </c>
     </row>
@@ -3872,15 +4081,15 @@
       <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="25">
+        <v>41</v>
+      </c>
+      <c r="B10" s="26">
         <v>20</v>
       </c>
     </row>

--- a/NET1807 - GROUP 4 - REVIEW LIST.xlsx
+++ b/NET1807 - GROUP 4 - REVIEW LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPT\SWR302-NET1807\SWR302-SU23-GROUP4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E605F900-25B9-4B24-935F-403C24F4C22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBC45AF-6A08-4B9B-9327-025BAA834F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -376,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -424,10 +424,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,7 +690,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FD6376DB-0356-4214-8336-B713D9FCD95A}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FD6376DB-0356-4214-8336-B713D9FCD95A}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -963,7 +960,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1249,8 +1246,8 @@
       <c r="F13" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="28" t="s">
-        <v>24</v>
+      <c r="G13" s="14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/NET1807 - GROUP 4 - REVIEW LIST.xlsx
+++ b/NET1807 - GROUP 4 - REVIEW LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPT\SWR302-NET1807\SWR302-SU23-GROUP4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBC45AF-6A08-4B9B-9327-025BAA834F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C5EAB4-015A-40E4-BE6B-9DD851B6F73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="39">
   <si>
     <t>UC/Function/Screen</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>done</t>
-  </si>
-  <si>
-    <t>not done yet</t>
   </si>
   <si>
     <t>Trần Anh Toàn</t>
@@ -166,7 +163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -223,28 +220,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -376,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -417,11 +392,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -960,7 +930,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1234,16 +1204,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="12"/>
-      <c r="C13" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="27" t="s">
+      <c r="C13" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="27" t="s">
+      <c r="D13" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="14" t="s">
@@ -1256,7 +1226,7 @@
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>8</v>
@@ -1277,7 +1247,7 @@
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>11</v>
@@ -1298,7 +1268,7 @@
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>9</v>
@@ -1319,7 +1289,7 @@
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>14</v>
@@ -1340,7 +1310,7 @@
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>9</v>
@@ -1361,7 +1331,7 @@
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>7</v>
@@ -1382,7 +1352,7 @@
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>7</v>
@@ -1402,20 +1372,20 @@
         <v>20</v>
       </c>
       <c r="B21" s="16"/>
-      <c r="C21" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="26" t="s">
+      <c r="C21" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>24</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1423,20 +1393,20 @@
         <v>21</v>
       </c>
       <c r="B22" s="16"/>
-      <c r="C22" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="26" t="s">
+      <c r="C22" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>24</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1445,7 +1415,7 @@
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>11</v>
@@ -2468,10 +2438,10 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2524,7 +2494,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -2532,7 +2502,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>22</v>
